--- a/resources/testData/GuestCheckout.xlsx
+++ b/resources/testData/GuestCheckout.xlsx
@@ -31,9 +31,6 @@
     <t>Element Identifier</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>/en/shop/other/hats/jimmy-bird-trucker</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
     <tableColumn id="3" name="Element Identifier"/>
     <tableColumn id="4" name="Element Identifier Value"/>
     <tableColumn id="5" name="Input Value"/>
-    <tableColumn id="6" name="Assert"/>
+    <tableColumn id="6" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +746,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -807,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,13 +818,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>3000</v>
@@ -843,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,13 +854,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>3000</v>
@@ -879,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>3000</v>
@@ -915,13 +915,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,16 +957,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,16 +974,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,13 +991,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>3000</v>
@@ -1016,16 +1016,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,16 +1033,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,16 +1050,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,16 +1067,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,16 +1084,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,16 +1101,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,16 +1118,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,16 +1135,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,13 +1152,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>15000</v>
@@ -1177,13 +1177,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>3000</v>
@@ -1202,16 +1202,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,13 +1219,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>5000</v>
@@ -1244,13 +1244,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>3000</v>
@@ -1269,13 +1269,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>3000</v>
@@ -1294,16 +1294,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1311,16 +1311,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,16 +1328,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,16 +1345,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,16 +1362,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,16 +1379,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
         <v>3000</v>
@@ -1451,10 +1451,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -1463,7 +1463,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>3000</v>
@@ -1474,13 +1474,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -1489,7 +1489,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>3000</v>
@@ -1500,13 +1500,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -1515,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57">
         <v>3000</v>
@@ -1526,13 +1526,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -1541,7 +1541,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>3000</v>
@@ -1587,102 +1587,102 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>89</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6514685841</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>1920</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>9529</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2">
         <v>2022</v>
@@ -1693,46 +1693,46 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>6517030545</v>
       </c>
       <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>9529</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3">
         <v>2022</v>

--- a/resources/testData/GuestCheckout.xlsx
+++ b/resources/testData/GuestCheckout.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="5775" tabRatio="526" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="5775" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="Settings" sheetId="4" r:id="rId3"/>
+    <sheet name="Settings" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Instructions to Use" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>scrolldown</t>
+  </si>
+  <si>
+    <t>clickAndWait</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1867,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A8AFFF-0A39-4870-A411-D5F9A024E451}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,6 +2161,12 @@
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testData/GuestCheckout.xlsx
+++ b/resources/testData/GuestCheckout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="5775" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -12,7 +12,7 @@
     <sheet name="Settings" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Instructions to Use" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1843,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79239AFF-C243-4B19-B3C8-902634CC01ED}">
           <x14:formula1>
             <xm:f>Settings!$B:$B</xm:f>
